--- a/patient_data/patient_98.xlsx
+++ b/patient_data/patient_98.xlsx
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1143,13 +1143,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1404,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1513,13 +1513,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1744,13 +1744,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1857,13 +1857,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
